--- a/QCS_Pipeline/Pipeline_#1_QCS/output/IS_Norm_propranolol_batch_dataset.xlsx
+++ b/QCS_Pipeline/Pipeline_#1_QCS/output/IS_Norm_propranolol_batch_dataset.xlsx
@@ -2111,7 +2111,7 @@
         <v>1</v>
       </c>
       <c r="D84" t="n">
-        <v>1.3177030970025</v>
+        <v>1.31770309700249</v>
       </c>
       <c r="E84" t="n">
         <v>14.1103752502995</v>
@@ -3060,7 +3060,7 @@
         <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>1.3177030970025</v>
+        <v>1.31770309700249</v>
       </c>
       <c r="E30" t="n">
         <v>10.474521291369</v>
@@ -5907,7 +5907,7 @@
         <v>1</v>
       </c>
       <c r="D84" t="n">
-        <v>1.3177030970025</v>
+        <v>1.31770309700249</v>
       </c>
       <c r="E84" t="n">
         <v>14.1103752502995</v>
